--- a/flight_computer/v3/Bill of Material/flight computer v2 bom.xlsx
+++ b/flight_computer/v3/Bill of Material/flight computer v2 bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\internal-cubesat-boards\flight_computer\v2\Bill of Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\internal-cubesat-boards\flight_computer\v3\Bill of Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E5684-DD1F-4C6B-88C7-94B0E088EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421F9BC-3D4B-430C-A3A0-C6BE3E7CAE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="172">
   <si>
     <t>Ref</t>
   </si>
@@ -329,15 +329,6 @@
     <t xml:space="preserve">U8, </t>
   </si>
   <si>
-    <t>MSP430FR5969IRGZR</t>
-  </si>
-  <si>
-    <t>MSP430FR5969IRGZR:QFN50P700X700X100-49N</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/texas-instruments/MSP430FR59691IRGZR/5051667</t>
-  </si>
-  <si>
     <t xml:space="preserve">U9, </t>
   </si>
   <si>
@@ -540,6 +531,18 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13-11S-1-25C/241760?s=N4IgjCBcoBw1oDGUBmBDANgZwKYBoQB7KAbRAHYAWGAJgDYQBdAgBwBcoQBlNgJwEsAdgHMQAXzEEapEABMUYAMxMxQA</t>
+  </si>
+  <si>
+    <t>M4FR5969SPHPT-MLS</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/M4FR5969SPHPT-MLS/9860026?s=N4IgjCBcoLQBxVAYygMwIYBsDOBTANCAPZQDaIATAJwBsIAugL6OEVkgCyALAGIBKAVlpUAygAUAEmIAqMDgBkRDRkA</t>
+  </si>
+  <si>
+    <t>Radiation Hardened</t>
+  </si>
+  <si>
+    <t>Package_QFP:LQFP-48_7x7mm_P0.5mm</t>
   </si>
 </sst>
 </file>
@@ -879,15 +882,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -904,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -924,10 +927,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -964,7 +967,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -984,7 +987,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -1004,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1024,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -1044,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -1064,10 +1067,10 @@
         <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,7 +1087,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>72</v>
@@ -1104,10 +1107,10 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1124,10 +1127,10 @@
         <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,15 +1147,15 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B14" s="4">
         <v>4</v>
@@ -1164,10 +1167,10 @@
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1184,10 +1187,10 @@
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,15 +1207,15 @@
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" s="4">
         <v>5</v>
@@ -1224,10 +1227,10 @@
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1244,30 +1247,30 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1295,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -1312,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1465,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
@@ -1499,149 +1502,152 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>171</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" s="4">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="4">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
         <v>90</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B41" s="4">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1666,26 +1672,25 @@
     <hyperlink ref="F30" r:id="rId18" xr:uid="{98E66B6B-4876-4C4C-A562-F4768B5709D7}"/>
     <hyperlink ref="F31" r:id="rId19" xr:uid="{B69B596A-2726-4EC1-B23E-3F78B700B238}"/>
     <hyperlink ref="F32" r:id="rId20" xr:uid="{84C52903-176B-4D3A-99D4-D70F8E4CF953}"/>
-    <hyperlink ref="F33" r:id="rId21" xr:uid="{9C5952CB-F8AE-4BD8-AA49-B0111FC02F5E}"/>
-    <hyperlink ref="F34" r:id="rId22" xr:uid="{1BAB8537-6BAF-4B66-B53B-46636EC25408}"/>
-    <hyperlink ref="F35" r:id="rId23" xr:uid="{34192D9E-A8BB-4AFB-B44B-AB759D49FC94}"/>
-    <hyperlink ref="F36" r:id="rId24" xr:uid="{60D6EC94-73D4-4AD7-8E52-532F84718C91}"/>
-    <hyperlink ref="F37" r:id="rId25" xr:uid="{B2E53675-228B-44C4-847B-FA16EA549A33}"/>
-    <hyperlink ref="F39" r:id="rId26" xr:uid="{CC5BBAA5-0C71-449C-ADC4-5475EA718876}"/>
-    <hyperlink ref="F41" r:id="rId27" xr:uid="{094F4216-7A48-4C82-8296-8120C7555DF2}"/>
-    <hyperlink ref="F19" r:id="rId28" xr:uid="{487D5CB8-53DB-4698-A4DB-0D314B23B24E}"/>
-    <hyperlink ref="F38" r:id="rId29" xr:uid="{A9FB8912-7245-4408-A57F-B0FB71816205}"/>
-    <hyperlink ref="F40" r:id="rId30" xr:uid="{6CCF812F-F412-4D2F-A78D-F3E417C26ACB}"/>
-    <hyperlink ref="F12" r:id="rId31" xr:uid="{98E9F380-D381-4726-9D39-54E425CDD77A}"/>
-    <hyperlink ref="F18" r:id="rId32" xr:uid="{A9BCB4E3-9119-408E-8EB8-6C62CE00634F}"/>
-    <hyperlink ref="F17" r:id="rId33" xr:uid="{12C91832-2298-49E3-9DCB-2283F4BEA348}"/>
-    <hyperlink ref="F16" r:id="rId34" xr:uid="{28B17CEC-8977-48DA-9FE6-CD3931F1D06A}"/>
-    <hyperlink ref="F15" r:id="rId35" xr:uid="{D18FB047-D838-4BBA-A87E-5FB543B59B73}"/>
-    <hyperlink ref="F14" r:id="rId36" xr:uid="{6B5D192A-FFB2-4FE9-9E0B-C7FCDD42B2A9}"/>
-    <hyperlink ref="F13" r:id="rId37" xr:uid="{369B5B93-C821-4E56-98AC-8111DBF09760}"/>
-    <hyperlink ref="F11" r:id="rId38" xr:uid="{835B2E5E-0681-45E4-A03D-E7C6F2A4FAFC}"/>
-    <hyperlink ref="F9" r:id="rId39" xr:uid="{9E5DA08F-035E-441B-9698-C3C08C1E77D7}"/>
-    <hyperlink ref="F2" r:id="rId40" xr:uid="{9C7FAA2C-4197-40AB-9AE4-842A35FAED28}"/>
+    <hyperlink ref="F34" r:id="rId21" xr:uid="{1BAB8537-6BAF-4B66-B53B-46636EC25408}"/>
+    <hyperlink ref="F35" r:id="rId22" xr:uid="{34192D9E-A8BB-4AFB-B44B-AB759D49FC94}"/>
+    <hyperlink ref="F36" r:id="rId23" xr:uid="{60D6EC94-73D4-4AD7-8E52-532F84718C91}"/>
+    <hyperlink ref="F37" r:id="rId24" xr:uid="{B2E53675-228B-44C4-847B-FA16EA549A33}"/>
+    <hyperlink ref="F39" r:id="rId25" xr:uid="{CC5BBAA5-0C71-449C-ADC4-5475EA718876}"/>
+    <hyperlink ref="F41" r:id="rId26" xr:uid="{094F4216-7A48-4C82-8296-8120C7555DF2}"/>
+    <hyperlink ref="F19" r:id="rId27" xr:uid="{487D5CB8-53DB-4698-A4DB-0D314B23B24E}"/>
+    <hyperlink ref="F38" r:id="rId28" xr:uid="{A9FB8912-7245-4408-A57F-B0FB71816205}"/>
+    <hyperlink ref="F40" r:id="rId29" xr:uid="{6CCF812F-F412-4D2F-A78D-F3E417C26ACB}"/>
+    <hyperlink ref="F12" r:id="rId30" xr:uid="{98E9F380-D381-4726-9D39-54E425CDD77A}"/>
+    <hyperlink ref="F18" r:id="rId31" xr:uid="{A9BCB4E3-9119-408E-8EB8-6C62CE00634F}"/>
+    <hyperlink ref="F17" r:id="rId32" xr:uid="{12C91832-2298-49E3-9DCB-2283F4BEA348}"/>
+    <hyperlink ref="F16" r:id="rId33" xr:uid="{28B17CEC-8977-48DA-9FE6-CD3931F1D06A}"/>
+    <hyperlink ref="F15" r:id="rId34" xr:uid="{D18FB047-D838-4BBA-A87E-5FB543B59B73}"/>
+    <hyperlink ref="F14" r:id="rId35" xr:uid="{6B5D192A-FFB2-4FE9-9E0B-C7FCDD42B2A9}"/>
+    <hyperlink ref="F13" r:id="rId36" xr:uid="{369B5B93-C821-4E56-98AC-8111DBF09760}"/>
+    <hyperlink ref="F11" r:id="rId37" xr:uid="{835B2E5E-0681-45E4-A03D-E7C6F2A4FAFC}"/>
+    <hyperlink ref="F9" r:id="rId38" xr:uid="{9E5DA08F-035E-441B-9698-C3C08C1E77D7}"/>
+    <hyperlink ref="F2" r:id="rId39" xr:uid="{9C7FAA2C-4197-40AB-9AE4-842A35FAED28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1710,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1736,7 +1741,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1753,7 +1758,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1770,7 +1775,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1781,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1798,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1832,21 +1837,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1855,12 +1860,12 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1869,12 +1874,12 @@
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1883,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
